--- a/tmp/window.xlsx
+++ b/tmp/window.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tmppro\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29767F70-0DE3-4404-A898-C62778F350FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D5535C-A544-4729-B5FF-2D2A6226EED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8115" yWindow="6570" windowWidth="21600" windowHeight="11385" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="序列长度的根号" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="30">
   <si>
     <t>ArticularyWordRecognition</t>
   </si>
@@ -132,6 +132,14 @@
     <t>好：5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>0.8_个数/总数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬耦合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -179,7 +187,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,6 +197,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -207,7 +227,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -220,6 +240,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3226,20 +3256,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC1EBFD-710D-42B3-97AA-736FC976C00D}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="8.125" customWidth="1"/>
-    <col min="10" max="10" width="12.625" customWidth="1"/>
-    <col min="11" max="11" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="9.25" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -3261,6 +3291,12 @@
       <c r="G1">
         <v>10</v>
       </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
       <c r="J1" s="1" t="s">
         <v>21</v>
       </c>
@@ -3268,7 +3304,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3294,7 +3330,7 @@
         <v>0.95466666700000002</v>
       </c>
       <c r="I2">
-        <v>0.97733333333333294</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="J2" s="1">
         <v>9</v>
@@ -3302,8 +3338,11 @@
       <c r="K2" s="1">
         <v>144</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2">
+        <v>0.97799999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3329,7 +3368,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I3">
-        <v>0.27999999999999936</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J3" s="1">
         <v>2</v>
@@ -3337,8 +3376,11 @@
       <c r="K3" s="1">
         <v>640</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -3363,17 +3405,20 @@
       <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>1</v>
       </c>
       <c r="J4" s="1">
         <v>6</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="7">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3399,7 +3444,7 @@
         <v>0.92777777800000005</v>
       </c>
       <c r="I5">
-        <v>0.90277777777777701</v>
+        <v>0.92222199999999999</v>
       </c>
       <c r="J5" s="1">
         <v>6</v>
@@ -3407,8 +3452,11 @@
       <c r="K5" s="1">
         <v>1197</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <v>0.92222199999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -3434,7 +3482,7 @@
         <v>0.96376811600000001</v>
       </c>
       <c r="I6">
-        <v>0.96521739130434692</v>
+        <v>0.96521699999999999</v>
       </c>
       <c r="J6" s="1">
         <v>3</v>
@@ -3442,8 +3490,11 @@
       <c r="K6" s="1">
         <v>206</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6">
+        <v>0.96521699999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -3469,16 +3520,19 @@
         <v>0.54800000000000004</v>
       </c>
       <c r="I7">
-        <v>0.52600000000000002</v>
-      </c>
-      <c r="J7" s="1">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="J7" s="6">
         <v>28</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="4">
+        <v>0.54800000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -3504,16 +3558,19 @@
         <v>0.5</v>
       </c>
       <c r="I8">
-        <v>0.52972972972972943</v>
-      </c>
-      <c r="J8" s="1">
+        <v>0.52702700000000002</v>
+      </c>
+      <c r="J8" s="6">
         <v>10</v>
       </c>
       <c r="K8" s="1">
         <v>400</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <v>0.52972972972972943</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3539,7 +3596,7 @@
         <v>0.34423529400000002</v>
       </c>
       <c r="I9">
-        <v>0.34305882352941125</v>
+        <v>0.34470600000000001</v>
       </c>
       <c r="J9" s="1">
         <v>3</v>
@@ -3547,8 +3604,11 @@
       <c r="K9" s="1">
         <v>152</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <v>0.34470600000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -3574,16 +3634,19 @@
         <v>0.73268292700000004</v>
       </c>
       <c r="I10">
-        <v>0.75414634146341419</v>
-      </c>
-      <c r="J10" s="1">
+        <v>0.74926800000000005</v>
+      </c>
+      <c r="J10" s="6">
         <v>61</v>
       </c>
       <c r="K10" s="1">
         <v>405</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3">
+        <v>0.75414634146341419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -3609,16 +3672,19 @@
         <v>0.821111111</v>
       </c>
       <c r="I11">
-        <v>0.81222222222222185</v>
-      </c>
-      <c r="J11" s="1">
+        <v>0.80666700000000002</v>
+      </c>
+      <c r="J11" s="4">
         <v>2</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="8">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="9">
+        <v>0.80666700000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -3644,16 +3710,19 @@
         <v>0.52481751799999998</v>
       </c>
       <c r="I12">
-        <v>0.52238442822384379</v>
-      </c>
-      <c r="J12" s="1">
+        <v>0.52376299999999998</v>
+      </c>
+      <c r="J12" s="4">
         <v>6</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="8">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="9">
+        <v>0.52376299999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -3679,16 +3748,19 @@
         <v>0.83222222199999996</v>
       </c>
       <c r="I13">
-        <v>0.81444444444444386</v>
-      </c>
-      <c r="J13" s="1">
+        <v>0.812222</v>
+      </c>
+      <c r="J13" s="6">
         <v>24</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="7">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="5">
+        <v>0.83222222199999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -3714,7 +3786,7 @@
         <v>0.90360205800000004</v>
       </c>
       <c r="I14">
-        <v>0.90445969125214343</v>
+        <v>0.90245900000000001</v>
       </c>
       <c r="J14" s="1">
         <v>2</v>
@@ -3722,8 +3794,11 @@
       <c r="K14" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <v>0.90245900000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -3749,7 +3824,7 @@
         <v>0.89078947399999997</v>
       </c>
       <c r="I15">
-        <v>0.88289473684210518</v>
+        <v>0.89078900000000005</v>
       </c>
       <c r="J15" s="1">
         <v>6</v>
@@ -3757,8 +3832,11 @@
       <c r="K15" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <v>0.89078900000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -3784,7 +3862,7 @@
         <v>0.83890785000000001</v>
       </c>
       <c r="I16">
-        <v>0.84505119453924882</v>
+        <v>0.84709900000000005</v>
       </c>
       <c r="J16" s="1">
         <v>6</v>
@@ -3792,8 +3870,11 @@
       <c r="K16" s="1">
         <v>896</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <v>0.84709900000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -3819,7 +3900,7 @@
         <v>0.46333333300000001</v>
       </c>
       <c r="I17">
-        <v>0.47222222222222177</v>
+        <v>0.47555599999999998</v>
       </c>
       <c r="J17" s="1">
         <v>7</v>
@@ -3827,8 +3908,11 @@
       <c r="K17" s="1">
         <v>1152</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <v>0.47555599999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -3854,16 +3938,19 @@
         <v>0.46666666699999998</v>
       </c>
       <c r="I18">
+        <v>0.42666700000000002</v>
+      </c>
+      <c r="J18" s="6">
+        <v>13</v>
+      </c>
+      <c r="K18" s="7">
+        <v>93</v>
+      </c>
+      <c r="L18" s="3">
         <v>0.46666666666666601</v>
       </c>
-      <c r="J18" s="1">
-        <v>13</v>
-      </c>
-      <c r="K18" s="1">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -3889,7 +3976,7 @@
         <v>0.83875</v>
       </c>
       <c r="I19">
-        <v>0.83937500000000009</v>
+        <v>0.83937499999999998</v>
       </c>
       <c r="J19" s="1">
         <v>3</v>
@@ -3897,8 +3984,11 @@
       <c r="K19" s="1">
         <v>315</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19">
+        <v>0.83937499999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>0.70787151518775226</v>
       </c>
@@ -3921,10 +4011,15 @@
         <v>0.71285172299999999</v>
       </c>
       <c r="I20">
-        <v>0.71322133353060602</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+        <f>AVERAGE(I2:I19)</f>
+        <v>0.71161316666666663</v>
+      </c>
+      <c r="L20">
+        <f>AVERAGE(L2:L19)</f>
+        <v>0.71703433110332282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>24</v>
       </c>
